--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/IL/trans/BBSoEVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9FC5943-7DB6-914D-8FF0-9DDB6F64F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Sources:</t>
   </si>
@@ -534,6 +534,9 @@
   <si>
     <t>Sales Share by Vehicle Class</t>
   </si>
+  <si>
+    <t>Illinois</t>
+  </si>
 </sst>
 </file>
 
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -772,6 +775,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
@@ -2811,23 +2815,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="46">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2835,147 +2845,147 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3000,22 +3010,22 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="33" width="14.1796875" style="8" customWidth="1"/>
-    <col min="34" max="35" width="11.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.453125" style="8"/>
+    <col min="1" max="1" width="9.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="14.1640625" style="8" customWidth="1"/>
+    <col min="34" max="35" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -3211,7 +3221,7 @@
         <v>5701.9614259999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3309,7 +3319,7 @@
         <v>9346.6884769999997</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>12281.508301</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>15048.649903</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>0.37890185915371016</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>0.62109814084628989</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3609,7 +3619,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -3710,7 +3720,7 @@
         <v>5.2311099999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>4.4015519999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>0.13885448</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>0.33331726000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>0.11286979999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>9.1554599999999989E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>0.29214037000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -4399,7 +4409,7 @@
         <v>6.4415600000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>3.3520629999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>0.21498138</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>3.8551540000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>3.9426370000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>3.9069489999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>4.3252079999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>0.22664550999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -5281,13 +5291,13 @@
         <v>0.36455269000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +5306,7 @@
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>26</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>1.9820773044375646E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
@@ -5492,7 +5502,7 @@
         <v>1.6677562359617312E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -5590,7 +5600,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -5786,7 +5796,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -5884,7 +5894,7 @@
         <v>3.4690208154074267E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>32</v>
       </c>
@@ -5982,7 +5992,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>42</v>
       </c>
@@ -6181,7 +6191,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>36</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -6377,7 +6387,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
@@ -6475,7 +6485,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>39</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -6671,7 +6681,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -6769,7 +6779,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -6867,21 +6877,21 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
         <v>27</v>
       </c>
@@ -7079,7 +7089,7 @@
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
@@ -7179,7 +7189,7 @@
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>29</v>
       </c>
@@ -7279,7 +7289,7 @@
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -7379,7 +7389,7 @@
       <c r="AH57" s="10"/>
       <c r="AI57" s="10"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>31</v>
       </c>
@@ -7479,7 +7489,7 @@
       <c r="AH58" s="10"/>
       <c r="AI58" s="10"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
@@ -7579,7 +7589,7 @@
       <c r="AH59" s="10"/>
       <c r="AI59" s="10"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>33</v>
       </c>
@@ -7679,7 +7689,7 @@
       <c r="AH60" s="10"/>
       <c r="AI60" s="10"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>34</v>
       </c>
@@ -7782,7 +7792,7 @@
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>36</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -7980,7 +7990,7 @@
       <c r="AH63" s="10"/>
       <c r="AI63" s="10"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>38</v>
       </c>
@@ -8078,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>39</v>
       </c>
@@ -8178,7 +8188,7 @@
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>40</v>
       </c>
@@ -8278,7 +8288,7 @@
       <c r="AH66" s="10"/>
       <c r="AI66" s="10"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
@@ -8378,7 +8388,7 @@
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
         <v>33</v>
       </c>
@@ -8478,18 +8488,18 @@
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
     </row>
-    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>26</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -8685,7 +8695,7 @@
         <v>2.2128660479462301E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>28</v>
       </c>
@@ -8783,7 +8793,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -8881,7 +8891,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>30</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>32</v>
       </c>
@@ -9175,7 +9185,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>33</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>42</v>
       </c>
@@ -9374,7 +9384,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>36</v>
       </c>
@@ -9472,7 +9482,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
         <v>37</v>
       </c>
@@ -9570,7 +9580,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -9668,7 +9678,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>39</v>
       </c>
@@ -9766,7 +9776,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
         <v>40</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B86" s="8" t="s">
         <v>32</v>
       </c>
@@ -9962,7 +9972,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -10060,7 +10070,7 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>45</v>
       </c>
@@ -10068,12 +10078,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>26</v>
       </c>
@@ -10174,7 +10184,7 @@
         <v>80968.872000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>27</v>
       </c>
@@ -10275,7 +10285,7 @@
         <v>44404.087</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -10376,7 +10386,7 @@
         <v>33275.711000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>29</v>
       </c>
@@ -10477,7 +10487,7 @@
         <v>30943.995000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>30</v>
       </c>
@@ -10578,7 +10588,7 @@
         <v>37861.674999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>31</v>
       </c>
@@ -10679,7 +10689,7 @@
         <v>106564.087</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>32</v>
       </c>
@@ -10780,7 +10790,7 @@
         <v>29992.21</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>33</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>38230.708999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
         <v>35</v>
       </c>
@@ -10979,7 +10989,7 @@
         <v>35264.445999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>36</v>
       </c>
@@ -11077,7 +11087,7 @@
         <v>40569.968999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>37</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>35530.845999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B103" s="8" t="s">
         <v>38</v>
       </c>
@@ -11273,7 +11283,7 @@
         <v>34065.201000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B104" s="8" t="s">
         <v>39</v>
       </c>
@@ -11371,7 +11381,7 @@
         <v>38625.667999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
         <v>40</v>
       </c>
@@ -11469,7 +11479,7 @@
         <v>64958.861999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
         <v>56</v>
       </c>
@@ -11567,7 +11577,7 @@
         <v>33809.059000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
         <v>57</v>
       </c>
@@ -11665,7 +11675,7 @@
         <v>46370.635999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:33" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="24" t="s">
         <v>58</v>
@@ -11702,7 +11712,7 @@
       <c r="AF108" s="25"/>
       <c r="AG108" s="25"/>
     </row>
-    <row r="109" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>48</v>
       </c>
@@ -11800,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B110" s="8" t="s">
         <v>49</v>
       </c>
@@ -11898,7 +11908,7 @@
         <v>47893.864000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B111" s="8" t="s">
         <v>50</v>
       </c>
@@ -11996,7 +12006,7 @@
         <v>37207.881999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B112" s="8" t="s">
         <v>51</v>
       </c>
@@ -12094,7 +12104,7 @@
         <v>34765.69</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B113" s="8" t="s">
         <v>52</v>
       </c>
@@ -12192,7 +12202,7 @@
         <v>41727.862999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B114" s="8" t="s">
         <v>53</v>
       </c>
@@ -12290,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B115" s="8" t="s">
         <v>54</v>
       </c>
@@ -12388,7 +12398,7 @@
         <v>33879.688000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>55</v>
       </c>
@@ -12486,7 +12496,7 @@
         <v>42019.215000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -12584,7 +12594,7 @@
         <v>41482.201000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B118" s="8" t="s">
         <v>36</v>
       </c>
@@ -12682,7 +12692,7 @@
         <v>46803.074000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
@@ -12780,7 +12790,7 @@
         <v>41604.519</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B120" s="8" t="s">
         <v>38</v>
       </c>
@@ -12878,7 +12888,7 @@
         <v>39947.468000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B121" s="8" t="s">
         <v>39</v>
       </c>
@@ -12976,7 +12986,7 @@
         <v>44679.234000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B122" s="8" t="s">
         <v>40</v>
       </c>
@@ -13074,7 +13084,7 @@
         <v>71400.763999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B123" s="8" t="s">
         <v>56</v>
       </c>
@@ -13172,7 +13182,7 @@
         <v>38742.171999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B124" s="8" t="s">
         <v>57</v>
       </c>
@@ -13270,7 +13280,7 @@
         <v>50426.273000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:33" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="24" t="s">
         <v>59</v>
@@ -13307,7 +13317,7 @@
       <c r="AF125" s="25"/>
       <c r="AG125" s="25"/>
     </row>
-    <row r="126" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B126" s="8" t="s">
         <v>48</v>
       </c>
@@ -13405,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B127" s="8" t="s">
         <v>49</v>
       </c>
@@ -13503,7 +13513,7 @@
         <v>54782.741999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B128" s="8" t="s">
         <v>50</v>
       </c>
@@ -13601,7 +13611,7 @@
         <v>42981.940999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B129" s="8" t="s">
         <v>51</v>
       </c>
@@ -13699,7 +13709,7 @@
         <v>42023.01</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B130" s="8" t="s">
         <v>52</v>
       </c>
@@ -13797,7 +13807,7 @@
         <v>51233.578000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
         <v>53</v>
       </c>
@@ -13895,7 +13905,7 @@
         <v>118626.762</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B132" s="8" t="s">
         <v>54</v>
       </c>
@@ -13993,7 +14003,7 @@
         <v>42152.152999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B133" s="8" t="s">
         <v>55</v>
       </c>
@@ -14091,7 +14101,7 @@
         <v>52401.462999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B134" s="8" t="s">
         <v>35</v>
       </c>
@@ -14189,7 +14199,7 @@
         <v>48399.856999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B135" s="8" t="s">
         <v>36</v>
       </c>
@@ -14287,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B136" s="8" t="s">
         <v>37</v>
       </c>
@@ -14385,7 +14395,7 @@
         <v>49296.616000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B137" s="8" t="s">
         <v>38</v>
       </c>
@@ -14483,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B138" s="8" t="s">
         <v>39</v>
       </c>
@@ -14581,7 +14591,7 @@
         <v>52104.9</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>40</v>
       </c>
@@ -14679,7 +14689,7 @@
         <v>82666.054000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B140" s="8" t="s">
         <v>56</v>
       </c>
@@ -14777,7 +14787,7 @@
         <v>46721.110999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B141" s="8" t="s">
         <v>57</v>
       </c>
@@ -14875,13 +14885,13 @@
         <v>61902.583999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
       <c r="B144" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C145" s="7">
         <v>2020</v>
       </c>
@@ -14976,7 +14986,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B146" s="8" t="s">
         <v>61</v>
       </c>
@@ -15074,7 +15084,7 @@
         <v>34223.758900205961</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B147" s="8" t="s">
         <v>62</v>
       </c>
@@ -15173,7 +15183,7 @@
       </c>
       <c r="AI147" s="31"/>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B148" s="8" t="s">
         <v>63</v>
       </c>
@@ -15271,13 +15281,13 @@
         <v>38083.262899259396</v>
       </c>
     </row>
-    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
       <c r="B150" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C151" s="7">
         <v>2020</v>
       </c>
@@ -15372,7 +15382,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B152" s="30" t="s">
         <v>61</v>
       </c>
@@ -15470,7 +15480,7 @@
         <v>32757.347853553154</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B153" s="30" t="s">
         <v>62</v>
       </c>
@@ -15568,7 +15578,7 @@
         <v>36683.241130522299</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B154" s="8" t="s">
         <v>63</v>
       </c>
@@ -15666,7 +15676,7 @@
         <v>34512.987662623018</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C157" s="7"/>
       <c r="E157" s="31"/>
     </row>
@@ -15684,12 +15694,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -15697,7 +15707,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2020</v>
       </c>
@@ -15708,7 +15718,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -15722,7 +15732,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -15736,7 +15746,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -15750,7 +15760,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15764,7 +15774,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -15778,7 +15788,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -15786,7 +15796,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -15797,7 +15807,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -15814,7 +15824,7 @@
         <v>7.5308886519958804E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -15831,7 +15841,7 @@
         <v>0.17567573354125138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -15848,7 +15858,7 @@
         <v>0.12991343885392936</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -15865,7 +15875,7 @@
         <v>0.59465216153992051</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -15882,7 +15892,7 @@
         <v>2.0904748863865383E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -15890,7 +15900,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -15901,7 +15911,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -15918,13 +15928,13 @@
         <v>33227.961912950093</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -15933,7 +15943,7 @@
         <v>0.22203164776067363</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -15942,7 +15952,7 @@
         <v>0.34617198659342718</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -15950,7 +15960,7 @@
         <v>49996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -15958,7 +15968,7 @@
         <v>39190.400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -15966,7 +15976,7 @@
         <v>32444.6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -15975,7 +15985,7 @@
         <v>0.21612929034322748</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -15999,17 +16009,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -16104,7 +16114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -16130,7 +16140,7 @@
         <v>59241</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -16156,7 +16166,7 @@
         <v>69394</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -16182,12 +16192,12 @@
         <v>101008</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2020</v>
       </c>
@@ -16282,7 +16292,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -16315,7 +16325,7 @@
         <v>53201.665332848308</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -16348,7 +16358,7 @@
         <v>62319.6158759588</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -16381,7 +16391,7 @@
         <v>90710.720817345107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -16414,7 +16424,7 @@
         <v>59927.367919640412</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -16422,7 +16432,7 @@
         <v>74481.20175540229</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -16431,7 +16441,7 @@
         <v>0.19540277939602735</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -16439,7 +16449,7 @@
         <v>60169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -16462,22 +16472,22 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -16485,12 +16495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -16501,7 +16511,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>99</v>
       </c>
@@ -16510,13 +16520,13 @@
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="39"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>97</v>
       </c>
@@ -16527,7 +16537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Heavy freight'!A15</f>
         <v>6-7</v>
@@ -16549,17 +16559,17 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>86</v>
       </c>
@@ -16568,12 +16578,12 @@
         <v>124864</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>86</v>
       </c>
@@ -16586,7 +16596,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -16598,12 +16608,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -16611,7 +16621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>86</v>
       </c>
@@ -16642,44 +16652,44 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>43004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>93</v>
       </c>
@@ -16690,7 +16700,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>154</v>
       </c>
@@ -16701,30 +16711,30 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>43802</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>113</v>
       </c>
@@ -16735,12 +16745,12 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" ref="B19:B24" si="0">E27</f>
         <v>Average</v>
@@ -16752,7 +16762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>88</v>
       </c>
@@ -16769,7 +16779,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>87</v>
       </c>
@@ -16786,7 +16796,7 @@
         <v>25795</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>86</v>
       </c>
@@ -16803,7 +16813,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>8</v>
       </c>
@@ -16820,7 +16830,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>108</v>
       </c>
@@ -16837,15 +16847,15 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>111</v>
       </c>
@@ -16859,7 +16869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>88</v>
       </c>
@@ -16878,7 +16888,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>87</v>
       </c>
@@ -16897,7 +16907,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>86</v>
       </c>
@@ -16916,7 +16926,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>8</v>
       </c>
@@ -16935,7 +16945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>108</v>
       </c>
@@ -16947,7 +16957,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>107</v>
       </c>
@@ -16958,17 +16968,17 @@
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>88</v>
       </c>
@@ -16988,7 +16998,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>87</v>
       </c>
@@ -17007,7 +17017,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>86</v>
       </c>
@@ -17026,7 +17036,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="35">
         <v>8</v>
       </c>
@@ -17045,7 +17055,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>105</v>
       </c>
@@ -17053,12 +17063,12 @@
         <v>201351</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -17083,13 +17093,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -17190,7 +17200,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -17315,7 +17325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -17448,7 +17458,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -17581,7 +17591,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17714,7 +17724,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -17847,7 +17857,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -17996,13 +18006,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -18103,7 +18113,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -18235,7 +18245,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -18368,7 +18378,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -18501,7 +18511,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -18634,7 +18644,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -18767,7 +18777,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
